--- a/in vivo/python/suite2p/LGNexperiments.xlsx
+++ b/in vivo/python/suite2p/LGNexperiments.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B71BDAAB-E021-3243-A0A8-479407B17027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="52">
   <si>
     <t>mouse</t>
   </si>
@@ -133,12 +134,54 @@
   </si>
   <si>
     <t>I:\David Laubender\Data\imaging data\DL_191106_4\ImagingData\2019-12-19</t>
+  </si>
+  <si>
+    <t>Suite2p quality control</t>
+  </si>
+  <si>
+    <t>bad drift</t>
+  </si>
+  <si>
+    <t>I:\David Laubender\Data\imaging data\DL_191024_6\ImagingData\2020-02-06</t>
+  </si>
+  <si>
+    <t>I:\David Laubender\Data\imaging data\DL_191024_6\ImagingData\2020-02-23</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>control: fullfield grating</t>
+  </si>
+  <si>
+    <t>control: subfield euler, both eyes closed</t>
+  </si>
+  <si>
+    <t>control: fullfield euler, both eyes closed</t>
+  </si>
+  <si>
+    <t>I:\David Laubender\Data\imaging data\DL_191106_4\ImagingData\2020-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>I:\David Laubender\Data\imaging data\DL_191106_4\ImagingData\2020-02-26</t>
+  </si>
+  <si>
+    <t>euler subfield closed</t>
+  </si>
+  <si>
+    <t>euler fullfield closed</t>
+  </si>
+  <si>
+    <t>grating fullfield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,24 +492,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="68.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,8 +532,11 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -511,8 +558,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -534,8 +584,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -557,8 +610,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -580,8 +636,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -603,8 +662,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -626,8 +688,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -649,8 +714,11 @@
       <c r="G8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -672,8 +740,11 @@
       <c r="G9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -695,8 +766,11 @@
       <c r="G10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -718,8 +792,11 @@
       <c r="G11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -741,8 +818,11 @@
       <c r="G12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -764,8 +844,11 @@
       <c r="G13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -787,8 +870,11 @@
       <c r="G14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -810,8 +896,11 @@
       <c r="G15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -833,8 +922,11 @@
       <c r="G16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -856,8 +948,11 @@
       <c r="G17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -879,8 +974,11 @@
       <c r="G18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -902,8 +1000,11 @@
       <c r="G19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -925,8 +1026,11 @@
       <c r="G20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -948,8 +1052,11 @@
       <c r="G21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -971,8 +1078,11 @@
       <c r="G22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1104,11 @@
       <c r="G23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1017,8 +1130,11 @@
       <c r="G24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1156,11 @@
       <c r="G25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1063,8 +1182,11 @@
       <c r="G26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1086,8 +1208,11 @@
       <c r="G27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1109,8 +1234,11 @@
       <c r="G28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1132,8 +1260,11 @@
       <c r="G29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1155,8 +1286,11 @@
       <c r="G30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1178,8 +1312,11 @@
       <c r="G31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1201,8 +1338,11 @@
       <c r="G32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1224,8 +1364,11 @@
       <c r="G33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1247,8 +1390,11 @@
       <c r="G34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1270,8 +1416,11 @@
       <c r="G35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -1293,8 +1442,11 @@
       <c r="G36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1316,8 +1468,11 @@
       <c r="G37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1339,8 +1494,11 @@
       <c r="G38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1362,8 +1520,11 @@
       <c r="G39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -1385,8 +1546,11 @@
       <c r="G40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1411,8 +1575,11 @@
       <c r="H41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1437,8 +1604,11 @@
       <c r="H42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1633,11 @@
       <c r="H43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1486,8 +1659,11 @@
       <c r="G44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1509,8 +1685,11 @@
       <c r="G45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1532,8 +1711,11 @@
       <c r="G46">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1555,8 +1737,11 @@
       <c r="G47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -1578,8 +1763,11 @@
       <c r="G48">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1601,8 +1789,11 @@
       <c r="G49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -1624,8 +1815,11 @@
       <c r="G50">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -1647,8 +1841,11 @@
       <c r="G51">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -1670,8 +1867,11 @@
       <c r="G52">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -1693,8 +1893,11 @@
       <c r="G53">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -1716,8 +1919,11 @@
       <c r="G54">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -1739,8 +1945,11 @@
       <c r="G55">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -1765,8 +1974,11 @@
       <c r="H56" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -1791,8 +2003,11 @@
       <c r="H57" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -1814,8 +2029,14 @@
       <c r="G58">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -1837,8 +2058,11 @@
       <c r="G59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -1860,8 +2084,11 @@
       <c r="G60">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -1886,8 +2113,11 @@
       <c r="H61" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -1912,8 +2142,11 @@
       <c r="H62" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -1938,8 +2171,11 @@
       <c r="H63" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -1962,10 +2198,13 @@
         <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -1987,8 +2226,11 @@
       <c r="G65">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -2010,8 +2252,11 @@
       <c r="G66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -2033,8 +2278,14 @@
       <c r="G67">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -2056,8 +2307,11 @@
       <c r="G68">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -2079,8 +2333,11 @@
       <c r="G69">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -2102,8 +2359,11 @@
       <c r="G70">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2125,8 +2385,11 @@
       <c r="G71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2148,8 +2411,11 @@
       <c r="G72">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -2171,8 +2437,11 @@
       <c r="G73">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -2197,8 +2466,11 @@
       <c r="H74" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2220,8 +2492,11 @@
       <c r="G75">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -2243,8 +2518,11 @@
       <c r="G76">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2266,11 +2544,11 @@
       <c r="G77">
         <v>11</v>
       </c>
-      <c r="H77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -2292,11 +2570,11 @@
       <c r="G78">
         <v>11</v>
       </c>
-      <c r="H78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -2318,11 +2596,11 @@
       <c r="G79">
         <v>11</v>
       </c>
-      <c r="H79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -2344,8 +2622,11 @@
       <c r="G80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -2367,8 +2648,11 @@
       <c r="G81">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -2390,8 +2674,11 @@
       <c r="G82">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2413,8 +2700,11 @@
       <c r="G83">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -2436,8 +2726,11 @@
       <c r="G84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2458,6 +2751,360 @@
       </c>
       <c r="G85">
         <v>11</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>62416</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86">
+        <v>29</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86">
+        <v>12</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>62417</v>
+      </c>
+      <c r="C87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87">
+        <v>29</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>12</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>62418</v>
+      </c>
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88">
+        <v>29</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88">
+        <v>12</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>62422</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89">
+        <v>30</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <v>13</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>62423</v>
+      </c>
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90">
+        <v>30</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90">
+        <v>13</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>62424</v>
+      </c>
+      <c r="C91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91">
+        <v>30</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91">
+        <v>13</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92">
+        <v>62419</v>
+      </c>
+      <c r="C92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92">
+        <v>31</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92">
+        <v>14</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93">
+        <v>62420</v>
+      </c>
+      <c r="C93" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>14</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94">
+        <v>62421</v>
+      </c>
+      <c r="C94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94">
+        <v>31</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94">
+        <v>14</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95">
+        <v>62427</v>
+      </c>
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95">
+        <v>32</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95">
+        <v>15</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96">
+        <v>62428</v>
+      </c>
+      <c r="C96" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96">
+        <v>32</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96">
+        <v>15</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97">
+        <v>62429</v>
+      </c>
+      <c r="C97" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97">
+        <v>32</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97">
+        <v>15</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/in vivo/python/suite2p/LGNexperiments.xlsx
+++ b/in vivo/python/suite2p/LGNexperiments.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B71BDAAB-E021-3243-A0A8-479407B17027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="38">
   <si>
     <t>mouse</t>
   </si>
@@ -134,54 +133,12 @@
   </si>
   <si>
     <t>I:\David Laubender\Data\imaging data\DL_191106_4\ImagingData\2019-12-19</t>
-  </si>
-  <si>
-    <t>Suite2p quality control</t>
-  </si>
-  <si>
-    <t>bad drift</t>
-  </si>
-  <si>
-    <t>I:\David Laubender\Data\imaging data\DL_191024_6\ImagingData\2020-02-06</t>
-  </si>
-  <si>
-    <t>I:\David Laubender\Data\imaging data\DL_191024_6\ImagingData\2020-02-23</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>control: fullfield grating</t>
-  </si>
-  <si>
-    <t>control: subfield euler, both eyes closed</t>
-  </si>
-  <si>
-    <t>control: fullfield euler, both eyes closed</t>
-  </si>
-  <si>
-    <t>I:\David Laubender\Data\imaging data\DL_191106_4\ImagingData\2020-02-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>I:\David Laubender\Data\imaging data\DL_191106_4\ImagingData\2020-02-26</t>
-  </si>
-  <si>
-    <t>euler subfield closed</t>
-  </si>
-  <si>
-    <t>euler fullfield closed</t>
-  </si>
-  <si>
-    <t>grating fullfield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,25 +449,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="68.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,11 +488,8 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -558,11 +511,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -584,11 +534,8 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -610,11 +557,8 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -636,11 +580,8 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -662,11 +603,8 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -688,11 +626,8 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -714,11 +649,8 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -740,11 +672,8 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -766,11 +695,8 @@
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -792,11 +718,8 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -818,11 +741,8 @@
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -844,11 +764,8 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -870,11 +787,8 @@
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -896,11 +810,8 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -922,11 +833,8 @@
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -948,11 +856,8 @@
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -974,11 +879,8 @@
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1000,11 +902,8 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1026,11 +925,8 @@
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1052,11 +948,8 @@
       <c r="G21">
         <v>2</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1078,11 +971,8 @@
       <c r="G22">
         <v>2</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1104,11 +994,8 @@
       <c r="G23">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1130,11 +1017,8 @@
       <c r="G24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1156,11 +1040,8 @@
       <c r="G25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1182,11 +1063,8 @@
       <c r="G26">
         <v>4</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1208,11 +1086,8 @@
       <c r="G27">
         <v>4</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1234,11 +1109,8 @@
       <c r="G28">
         <v>4</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1260,11 +1132,8 @@
       <c r="G29">
         <v>4</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1286,11 +1155,8 @@
       <c r="G30">
         <v>4</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1312,11 +1178,8 @@
       <c r="G31">
         <v>4</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1338,11 +1201,8 @@
       <c r="G32">
         <v>5</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1364,11 +1224,8 @@
       <c r="G33">
         <v>5</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1390,11 +1247,8 @@
       <c r="G34">
         <v>5</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1416,11 +1270,8 @@
       <c r="G35">
         <v>5</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -1442,11 +1293,8 @@
       <c r="G36">
         <v>5</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1468,11 +1316,8 @@
       <c r="G37">
         <v>5</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1494,11 +1339,8 @@
       <c r="G38">
         <v>6</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1520,11 +1362,8 @@
       <c r="G39">
         <v>6</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -1546,11 +1385,8 @@
       <c r="G40">
         <v>6</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1575,11 +1411,8 @@
       <c r="H41" t="s">
         <v>23</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1604,11 +1437,8 @@
       <c r="H42" t="s">
         <v>23</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1633,11 +1463,8 @@
       <c r="H43" t="s">
         <v>23</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1659,11 +1486,8 @@
       <c r="G44">
         <v>7</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1685,11 +1509,8 @@
       <c r="G45">
         <v>7</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1711,11 +1532,8 @@
       <c r="G46">
         <v>7</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1737,11 +1555,8 @@
       <c r="G47">
         <v>7</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -1763,11 +1578,8 @@
       <c r="G48">
         <v>7</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1789,11 +1601,8 @@
       <c r="G49">
         <v>7</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -1815,11 +1624,8 @@
       <c r="G50">
         <v>8</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -1841,11 +1647,8 @@
       <c r="G51">
         <v>8</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -1867,11 +1670,8 @@
       <c r="G52">
         <v>8</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -1893,11 +1693,8 @@
       <c r="G53">
         <v>8</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -1919,11 +1716,8 @@
       <c r="G54">
         <v>8</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -1945,11 +1739,8 @@
       <c r="G55">
         <v>8</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -1974,11 +1765,8 @@
       <c r="H56" t="s">
         <v>23</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -2003,11 +1791,8 @@
       <c r="H57" t="s">
         <v>30</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -2029,14 +1814,8 @@
       <c r="G58">
         <v>9</v>
       </c>
-      <c r="H58" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -2058,11 +1837,8 @@
       <c r="G59">
         <v>9</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -2084,11 +1860,8 @@
       <c r="G60">
         <v>9</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2113,11 +1886,8 @@
       <c r="H61" t="s">
         <v>23</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -2142,11 +1912,8 @@
       <c r="H62" t="s">
         <v>23</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -2171,11 +1938,8 @@
       <c r="H63" t="s">
         <v>23</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -2198,13 +1962,10 @@
         <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>39</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -2226,11 +1987,8 @@
       <c r="G65">
         <v>7</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -2252,11 +2010,8 @@
       <c r="G66">
         <v>7</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -2278,14 +2033,8 @@
       <c r="G67">
         <v>7</v>
       </c>
-      <c r="H67" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -2307,11 +2056,8 @@
       <c r="G68">
         <v>10</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -2333,11 +2079,8 @@
       <c r="G69">
         <v>10</v>
       </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -2359,11 +2102,8 @@
       <c r="G70">
         <v>10</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2385,11 +2125,8 @@
       <c r="G71">
         <v>10</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2411,11 +2148,8 @@
       <c r="G72">
         <v>10</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -2437,11 +2171,8 @@
       <c r="G73">
         <v>10</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -2466,11 +2197,8 @@
       <c r="H74" t="s">
         <v>35</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2492,11 +2220,8 @@
       <c r="G75">
         <v>11</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -2518,11 +2243,8 @@
       <c r="G76">
         <v>11</v>
       </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2544,11 +2266,11 @@
       <c r="G77">
         <v>11</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -2570,11 +2292,11 @@
       <c r="G78">
         <v>11</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -2596,11 +2318,11 @@
       <c r="G79">
         <v>11</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -2622,11 +2344,8 @@
       <c r="G80">
         <v>10</v>
       </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -2648,11 +2367,8 @@
       <c r="G81">
         <v>10</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -2674,11 +2390,8 @@
       <c r="G82">
         <v>10</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2700,11 +2413,8 @@
       <c r="G83">
         <v>11</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -2726,11 +2436,8 @@
       <c r="G84">
         <v>11</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2751,360 +2458,6 @@
       </c>
       <c r="G85">
         <v>11</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86">
-        <v>62416</v>
-      </c>
-      <c r="C86" t="s">
-        <v>40</v>
-      </c>
-      <c r="D86">
-        <v>29</v>
-      </c>
-      <c r="E86" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86">
-        <v>12</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="K86" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87">
-        <v>62417</v>
-      </c>
-      <c r="C87" t="s">
-        <v>40</v>
-      </c>
-      <c r="D87">
-        <v>29</v>
-      </c>
-      <c r="E87" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87">
-        <v>12</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="K87" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>62418</v>
-      </c>
-      <c r="C88" t="s">
-        <v>40</v>
-      </c>
-      <c r="D88">
-        <v>29</v>
-      </c>
-      <c r="E88" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" t="s">
-        <v>51</v>
-      </c>
-      <c r="G88">
-        <v>12</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="K88" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89">
-        <v>62422</v>
-      </c>
-      <c r="C89" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89">
-        <v>30</v>
-      </c>
-      <c r="E89" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89">
-        <v>13</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="K89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90">
-        <v>62423</v>
-      </c>
-      <c r="C90" t="s">
-        <v>41</v>
-      </c>
-      <c r="D90">
-        <v>30</v>
-      </c>
-      <c r="E90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90">
-        <v>13</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="K90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91">
-        <v>62424</v>
-      </c>
-      <c r="C91" t="s">
-        <v>41</v>
-      </c>
-      <c r="D91">
-        <v>30</v>
-      </c>
-      <c r="E91" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" t="s">
-        <v>50</v>
-      </c>
-      <c r="G91">
-        <v>13</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="K91" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92">
-        <v>62419</v>
-      </c>
-      <c r="C92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D92">
-        <v>31</v>
-      </c>
-      <c r="E92" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92">
-        <v>14</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>47</v>
-      </c>
-      <c r="K92" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93">
-        <v>62420</v>
-      </c>
-      <c r="C93" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93">
-        <v>31</v>
-      </c>
-      <c r="E93" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93">
-        <v>14</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="K93" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>33</v>
-      </c>
-      <c r="B94">
-        <v>62421</v>
-      </c>
-      <c r="C94" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94">
-        <v>31</v>
-      </c>
-      <c r="E94" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" t="s">
-        <v>51</v>
-      </c>
-      <c r="G94">
-        <v>14</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="K94" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95">
-        <v>62427</v>
-      </c>
-      <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95">
-        <v>32</v>
-      </c>
-      <c r="E95" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95">
-        <v>15</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="K95" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96">
-        <v>62428</v>
-      </c>
-      <c r="C96" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96">
-        <v>32</v>
-      </c>
-      <c r="E96" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G96">
-        <v>15</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="K96" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>33</v>
-      </c>
-      <c r="B97">
-        <v>62429</v>
-      </c>
-      <c r="C97" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97">
-        <v>32</v>
-      </c>
-      <c r="E97" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" t="s">
-        <v>50</v>
-      </c>
-      <c r="G97">
-        <v>15</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="K97" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
